--- a/testdata/robotconfig/robot_config.xlsx
+++ b/testdata/robotconfig/robot_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\KICP-AUTO\testdata\robotconfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCC41E9-3549-4183-A6FD-61E78F60575D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A46297-66A7-451C-8041-124B4727FA11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="save_threshold_data" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,28 @@
     <sheet name="query_warm_word" sheetId="13" r:id="rId5"/>
     <sheet name="query_unproblem" sheetId="14" r:id="rId6"/>
     <sheet name="save_greeting" sheetId="15" r:id="rId7"/>
+    <sheet name="save_guide" sheetId="16" r:id="rId8"/>
+    <sheet name="save_warm_word" sheetId="17" r:id="rId9"/>
+    <sheet name="save_unproblem" sheetId="18" r:id="rId10"/>
+    <sheet name="query_guest_settings" sheetId="19" r:id="rId11"/>
+    <sheet name="save_guest_settings" sheetId="20" r:id="rId12"/>
+    <sheet name="query_artificial_settings" sheetId="21" r:id="rId13"/>
+    <sheet name="save_artiticial_settings" sheetId="22" r:id="rId14"/>
+    <sheet name="query_advance_settings" sheetId="23" r:id="rId15"/>
+    <sheet name="query_want_toask" sheetId="25" r:id="rId16"/>
+    <sheet name="save_want_toask" sheetId="28" r:id="rId17"/>
+    <sheet name="save_advance_settings" sheetId="24" r:id="rId18"/>
+    <sheet name="query_related_question" sheetId="26" r:id="rId19"/>
+    <sheet name="save_related_question" sheetId="29" r:id="rId20"/>
+    <sheet name="query_hot_question" sheetId="27" r:id="rId21"/>
+    <sheet name="save_hot_question" sheetId="30" r:id="rId22"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="334">
   <si>
     <t>description</t>
   </si>
@@ -48,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>错参-robotId为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,22 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"robotId":"709","userId":"11"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql-select robotId,normalGreetingEnable,normalGreetingContent,keywordGreetingEnable,keywordGreetingContent,userId from robot_greeting_word where robotId=709</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"robotId":"709","userId":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"robotId":"709"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>message-Required Long parameter 'userId' is not present</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,14 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非必填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>错参-robotId与userId不匹配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,38 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"robotId":"709","userId":"11","faqThresholdFrom":0.75,"faqThresholdTo":1}</t>
-  </si>
-  <si>
-    <t>{"robotId":"709","userId":"11","faqThresholdFrom":-0.75,"faqThresholdTo":1}</t>
-  </si>
-  <si>
-    <t>{"robotId":"709","userId":"11","faqThresholdFrom":75,"faqThresholdTo":1}</t>
-  </si>
-  <si>
-    <t>{"robotId":"709","userId":"11","faqThresholdFrom":0.75,"faqThresholdTo":-0.75}</t>
-  </si>
-  <si>
-    <t>{"robotId":"709","userId":"11","faqThresholdFrom":0.75,"faqThresholdTo":75}</t>
-  </si>
-  <si>
-    <t>{"robotId":"709","userId":"","faqThresholdFrom":75,"faqThresholdTo":1}</t>
-  </si>
-  <si>
-    <t>{"robotId":"709","userId":"11","faqThresholdFrom":"","faqThresholdTo":1}</t>
-  </si>
-  <si>
-    <t>{"robotId":"709","userId":"11","faqThresholdFrom":0.75,"faqThresholdTo":""}</t>
-  </si>
-  <si>
-    <t>sql-select gw.robotId,gw.guideResponseEnable,gwl.recordId,gw.robotId,gwl.intervalSeconds,gwl.responseContent,gwl.indexNo,gw.userId from robot_guide_word gw,robot_guide_word_list gwl where gw.robotId =709 and gw.userId = 11 and gw.userId = gwl.userId and gwl.robotId = gw.robotId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql-select ww.robotId,ww.warmResponseEnable,ww.getContactDontSendEnable,ww.warmResponseEnable,ww.warmSendLimitNums,wwl.recordId,wwl.robotId,wwl.intervalSeconds,wwl.responseContent,wwl.indexNo,ww.userId from robot_warm_word ww,robot_warm_word_list wwl where ww.robotId =709 and ww.userId = 11 and ww.userId = wwl.userId and wwl.robotId = ww.robotId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正常查询-未知问题回复为空查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,25 +207,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sql-select up.robotId,up.unknowResponseEnable,up.delaySecondsFrom,up.delaySecondsTo,upl.recordId,upl.robotId,upl.responseContent,upl.indexNo,up.userId from robot_unknow_response up,robot_unknow_response_list upl where up.robotId =709 and up.userId = 11 and up.userId = upl.userId and upl.robotId = up.robotId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正常保存-关闭关键词问候语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"robotId":"709","normalGreetingEnable":"true","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"false","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
-  </si>
-  <si>
     <t>正常保存-开启关键词问候语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"robotId":"709","normalGreetingEnable":"true","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"true","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正常保存-开启通用问候语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,18 +223,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"robotId":"709","normalGreetingEnable":"false","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"true","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正常保存-编辑通用问候语非空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"robotId":"709","normalGreetingEnable":"false","normalGreetingContent":"","keywordGreetingEnable":"true","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正常保存-编辑关键词问候语非空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"robotId":"709","normalGreetingEnable":"false","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"false","keywordGreetingContent":"","userId":"11"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正常保存-编辑通用问候语为空，关闭通用问候语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,18 +243,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"robotId":"709","normalGreetingEnable":"false","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"ture","keywordGreetingContent":"","userId":"11"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>异常保存-编辑通用问候语为空，且开启通用问候语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"robotId":"709","normalGreetingEnable":"true","normalGreetingContent":"","keywordGreetingEnable":"true","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"robotId":"","normalGreetingEnable":"true","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"false","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,47 +255,979 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"robotId":"709","normalGreetingEnable":"","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"false","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>错参-keywordGreetingEnable为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"robotId":"709","normalGreetingEnable":"true","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"robotId":"709","normalGreetingEnable":"true","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"false","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>{"normalGreetingEnable":"true","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"true","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-保存一条问候语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-保存两条问候语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-关闭引导语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-开启引导语(问候语为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"robotId":"","guideResponseEnable":"true","guideWordList":[],"userId":"11"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错参-guideResponseEnable为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺参-robotId缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺参-userId缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺参-guideResponseEnable缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺参-robotId缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺参-normalGreetingEnable缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺参-keywordGreetingEnable缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺参-userId缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"guideResponseEnable":"true","guideWordList":[],"userId":"11"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常保存-responseContent缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常保存-intervalSeconds缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-开启暖场语(暖场语为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-关闭暖场语(问候语为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-开启暖场语(增加一条暖场语）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-开启暖场语(增加两条暖场语）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-开启引导语(问候语非空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"robotId":"","warmResponseEnable":"true","getContactDontSendEnable":true,"warmSendLimitEnable":true,"warmSendLimitNums":5,"warmWordList":[],"userId":"11","loaded":true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错参-warmResponseEnable为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错参-robotId缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错参-userId缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错参-warmResponseEnable缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"warmResponseEnable":"true","getContactDontSendEnable":true,"warmSendLimitEnable":true,"warmSendLimitNums":5,"warmWordList":[],"userId":"11","loaded":true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-开启未知问题回复(其他为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常保存-intervalSeconds为负数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"robotId":"358","warmResponseEnable":"true","getContactDontSendEnable":true,"warmSendLimitEnable":true,"warmSendLimitNums":5,"warmWordList":[],"userId":"11","loaded":true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"robotId":"358","warmResponseEnable":"false","getContactDontSendEnable":true,"warmSendLimitEnable":true,"warmSendLimitNums":5,"warmWordList":[],"userId":"11","loaded":true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"robotId":"358","unknowResponseEnable":"false","userId":"11"}</t>
+  </si>
+  <si>
+    <t>正常保存-关闭未知问题回复(其他为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-开启未知问题回复，并增加1条回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-开启未知问题回复，并增加2条回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>异常保存-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delaySecondsFrom为负数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code-1213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>异常保存-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delaySecondsTo为负数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错参-robotId为空</t>
+  </si>
+  <si>
+    <t>错参-robotId为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错参-userId为空</t>
+  </si>
+  <si>
+    <t>错参-userId为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错参-responseContent为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺参-responseContent为空</t>
   </si>
   <si>
     <t>缺参-robotId为空</t>
   </si>
   <si>
-    <t>缺参-normalGreetingEnable为空</t>
-  </si>
-  <si>
-    <t>缺参-keywordGreetingEnable为空</t>
-  </si>
-  <si>
     <t>缺参-userId为空</t>
   </si>
   <si>
-    <t>{"normalGreetingEnable":"true","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"true","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"robotId":"709","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"true","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"robotId":"709","normalGreetingEnable":"true","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"robotId":"709","normalGreetingEnable":"true","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"true","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;"}</t>
+    <t>正常保存-热点问题，关联问题，猜你想问均关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-仅开启热点问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-仅开启关联问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-仅开启猜你想问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-开启关联问题+猜你想问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-开启热点问题，关联问题，猜你想问均开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错参-wantToAskEnable为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错参-hotQuestionEnable为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错参-relatedQuestionEnable为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺参-wantToAskEnable为空</t>
+  </si>
+  <si>
+    <t>缺参-hotQuestionEnable为空</t>
+  </si>
+  <si>
+    <t>缺参-relatedQuestionEnable为空</t>
+  </si>
+  <si>
+    <t>正常保存-仅开启访客端转人工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-访客端转人工，累计未识别问题转人工，累积未解决问题转人工均关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-仅开启累积未识别问题转人工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-仅开启累积未解决问题转人工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-开启访客端转人工+累积未解决问题转人工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-访客端转人工，累计未识别问题转人工，累积未解决问题转人工均开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错参-guestDisplayEnable为空</t>
+  </si>
+  <si>
+    <t>错参-unknowQuestionDisplayEnable为空</t>
+  </si>
+  <si>
+    <t>错参-unsolveQuestionDisplayEnable为空</t>
+  </si>
+  <si>
+    <t>错参-keywordDisplayEnable为空</t>
+  </si>
+  <si>
+    <t>错参-keywordExactEnable为空</t>
+  </si>
+  <si>
+    <t>异常保存-仅开启累积未解决问题转人工，设置unsolveQuestionCountTimes时间为负数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常保存-仅开启累积未识别问题转人工，设置unkonwQuestionCountTimes时间为负数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常保存-仅开启猜你想问，并设置showNumberLimit条数为负数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺参-userId缺失</t>
+  </si>
+  <si>
+    <t>缺参-guestDisplayEnable缺失</t>
+  </si>
+  <si>
+    <t>缺参-unknowQuestionDisplayEnable缺失</t>
+  </si>
+  <si>
+    <t>缺参-unsolveQuestionDisplayEnable缺失</t>
+  </si>
+  <si>
+    <t>缺参-keywordExactEnable缺失</t>
+  </si>
+  <si>
+    <t>缺参-keywordDisplayEnable缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常查询-均关闭查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常查询-均开启查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常查询-未开启设置查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常查询-均开启设置查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常查询-均未开启设置查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-保存设置发送速度回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-保存随机时长回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常保存-保存设置发送速度回复，设置非文本类回复时间为负数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常保存-保存设置发送速度回复，设置文本类回复时间为负数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常保存-保存随机时长回复，设置randomSecondsFrom时间为负数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常保存-保存随机时长回复，设置randomSecondsTo时间为负数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-保存随机时长回复+保存访客反馈入口+未设置反馈消息设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-保存随机时长回复+保存访客反馈入口+设置反馈消息设置-未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-保存随机时长回复+保存访客反馈入口+设置反馈消息设置-解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-保存随机时长回复+保存访客反馈入口+设置反馈消息设置-解决+未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-保存发送速度回复+保存访客反馈入口+设置反馈消息设置-解决+未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错参-timeResponseType为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错参-timeResponseType不存在（非1/2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code-1214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺参-robotId缺失</t>
+  </si>
+  <si>
+    <t>缺参-timeResponseType缺失</t>
+  </si>
+  <si>
+    <t>正常查询-为空查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常查询-非空查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-开启保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常保存-关闭保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常保存-设置显示条数限制为负数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常保存-guideWord为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常保存-wantToAskEnable为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"robotId":"","wantToAskEnable":"true","guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":3,"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"wantToAskEnable":"true","guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":3,"userId":"11"}</t>
+  </si>
+  <si>
+    <t>缺参-wantToAskEnable缺少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺参-guideWord缺少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺参-showNumberLimit缺少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常保存-relatedQuestionEnable为空</t>
+  </si>
+  <si>
+    <t>{"robotId":"","relatedQuestionEnable":"true","guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":3,"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"relatedQuestionEnable":"true","guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":3,"userId":"11"}</t>
+  </si>
+  <si>
+    <t>缺参-relatedQuestionEnable缺少</t>
+  </si>
+  <si>
+    <t>异常保存-faqId为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常保存-hotDataMode为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常保存-hotQuestionEnable为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺参-faqId缺少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺参-hotQuestionEnable缺少</t>
+  </si>
+  <si>
+    <t>缺参-hotDataMode缺少</t>
+  </si>
+  <si>
+    <t>正常保存-开启保存热点问题，新增一条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"robotId":"","guestDisplayEnable":"false","guestDisplayWord":"","unknowQuestionDisplayEnable":"false","unkonwQuestionCountTimes":"","unknowQuestionDisplayWord":"","unsolveQuestionDisplayEnable":"false","unsolveQuestionCountTimes":"","unsolveQuestionDisplayWord":"","keywordDisplayEnable":"false","keywordContent":"","keywordExactEnable":"false","keywordDisplayWord":"","loaded":"true","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"358","guestDisplayEnable":"false","guestDisplayWord":"","unknowQuestionDisplayEnable":"false","unkonwQuestionCountTimes":"","unknowQuestionDisplayWord":"","unsolveQuestionDisplayEnable":"false","unsolveQuestionCountTimes":"","unsolveQuestionDisplayWord":"","keywordDisplayEnable":"false","keywordContent":"","keywordExactEnable":"false","keywordDisplayWord":"","loaded":"true","userId":""}</t>
+  </si>
+  <si>
+    <t>{"robotId":"358","guestDisplayEnable":"","guestDisplayWord":"","unknowQuestionDisplayEnable":"false","unkonwQuestionCountTimes":"","unknowQuestionDisplayWord":"","unsolveQuestionDisplayEnable":"false","unsolveQuestionCountTimes":"","unsolveQuestionDisplayWord":"","keywordDisplayEnable":"false","keywordContent":"","keywordExactEnable":"false","keywordDisplayWord":"","loaded":"true","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"358","guestDisplayEnable":"false","guestDisplayWord":"","unknowQuestionDisplayEnable":"","unkonwQuestionCountTimes":"","unknowQuestionDisplayWord":"","unsolveQuestionDisplayEnable":"false","unsolveQuestionCountTimes":"","unsolveQuestionDisplayWord":"","keywordDisplayEnable":"false","keywordContent":"","keywordExactEnable":"false","keywordDisplayWord":"","loaded":"true","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"358","guestDisplayEnable":"false","guestDisplayWord":"","unknowQuestionDisplayEnable":"false","unkonwQuestionCountTimes":"","unknowQuestionDisplayWord":"","unsolveQuestionDisplayEnable":"","unsolveQuestionCountTimes":"","unsolveQuestionDisplayWord":"","keywordDisplayEnable":"false","keywordContent":"","keywordExactEnable":"false","keywordDisplayWord":"","loaded":"true","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"358","guestDisplayEnable":"false","guestDisplayWord":"","unknowQuestionDisplayEnable":"false","unkonwQuestionCountTimes":"","unknowQuestionDisplayWord":"","unsolveQuestionDisplayEnable":"false","unsolveQuestionCountTimes":"","unsolveQuestionDisplayWord":"","keywordDisplayEnable":"","keywordContent":"","keywordExactEnable":"false","keywordDisplayWord":"","loaded":"true","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"358","guestDisplayEnable":"false","guestDisplayWord":"","unknowQuestionDisplayEnable":"false","unkonwQuestionCountTimes":"","unknowQuestionDisplayWord":"","unsolveQuestionDisplayEnable":"false","unsolveQuestionCountTimes":"","unsolveQuestionDisplayWord":"","keywordDisplayEnable":"false","keywordContent":"","keywordExactEnable":"","keywordDisplayWord":"","loaded":"true","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"guestDisplayEnable":"false","guestDisplayWord":"","unknowQuestionDisplayEnable":"false","unkonwQuestionCountTimes":"","unknowQuestionDisplayWord":"","unsolveQuestionDisplayEnable":"false","unsolveQuestionCountTimes":"","unsolveQuestionDisplayWord":"","keywordDisplayEnable":"false","keywordContent":"","keywordExactEnable":"false","keywordDisplayWord":"","loaded":"true","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"358","guestDisplayEnable":"false","guestDisplayWord":"","unknowQuestionDisplayEnable":"false","unkonwQuestionCountTimes":"","unknowQuestionDisplayWord":"","unsolveQuestionDisplayEnable":"false","unsolveQuestionCountTimes":"","unsolveQuestionDisplayWord":"","keywordDisplayEnable":"false","keywordContent":"","keywordExactEnable":"false","keywordDisplayWord":"","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"358","guestDisplayWord":"","unknowQuestionDisplayEnable":"false","unkonwQuestionCountTimes":"","unknowQuestionDisplayWord":"","unsolveQuestionDisplayEnable":"false","unsolveQuestionCountTimes":"","unsolveQuestionDisplayWord":"","keywordDisplayEnable":"false","keywordContent":"","keywordExactEnable":"false","keywordDisplayWord":"","loaded":"true","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"358","guestDisplayEnable":"false","guestDisplayWord":"","unkonwQuestionCountTimes":"","unknowQuestionDisplayWord":"","unsolveQuestionDisplayEnable":"false","unsolveQuestionCountTimes":"","unsolveQuestionDisplayWord":"","keywordDisplayEnable":"false","keywordContent":"","keywordExactEnable":"false","keywordDisplayWord":"","loaded":"true","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"358","guestDisplayEnable":"false","guestDisplayWord":"","unknowQuestionDisplayEnable":"false","unkonwQuestionCountTimes":"","unknowQuestionDisplayWord":"","unsolveQuestionCountTimes":"","unsolveQuestionDisplayWord":"","keywordDisplayEnable":"false","keywordContent":"","keywordExactEnable":"false","keywordDisplayWord":"","loaded":"true","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"358","guestDisplayEnable":"false","guestDisplayWord":"","unknowQuestionDisplayEnable":"false","unkonwQuestionCountTimes":"","unknowQuestionDisplayWord":"","unsolveQuestionDisplayEnable":"false","unsolveQuestionCountTimes":"","unsolveQuestionDisplayWord":"","keywordContent":"","keywordExactEnable":"false","keywordDisplayWord":"","loaded":"true","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"358","guestDisplayEnable":"false","guestDisplayWord":"","unknowQuestionDisplayEnable":"false","unkonwQuestionCountTimes":"","unknowQuestionDisplayWord":"","unsolveQuestionDisplayEnable":"false","unsolveQuestionCountTimes":"","unsolveQuestionDisplayWord":"","keywordDisplayEnable":"false","keywordContent":"","keywordDisplayWord":"","loaded":"true","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"358","guestDisplayEnable":"false","guestDisplayWord":"","unknowQuestionDisplayEnable":"false","unkonwQuestionCountTimes":"","unknowQuestionDisplayWord":"","unsolveQuestionDisplayEnable":"false","unsolveQuestionCountTimes":"","unsolveQuestionDisplayWord":"","keywordDisplayEnable":"false","keywordContent":"","keywordExactEnable":"false","keywordDisplayWord":"","loaded":"true","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"","hotQuestion":{"robotId":"358","hotQuestionEnable":"false","hotDataMode":"MANUAL_ADD","guideWord":"","hotQuestionList":[],"userId":"11"},"wantToask":{"robotId":"358","wantToAskEnable":"false","guideWord":"","showNumberLimit":3,"userId":"11"},"relatedQuestion":{"robotId":"358","relatedQuestionEnable":"false","guideWord":"","showNumberLimit":8,"userId":"11"},"userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"358","hotQuestion":{"robotId":"358","hotQuestionEnable":"false","hotDataMode":"MANUAL_ADD","guideWord":"","hotQuestionList":[],"userId":"11"},"wantToask":{"robotId":"358","wantToAskEnable":"false","guideWord":"","showNumberLimit":3,"userId":"11"},"relatedQuestion":{"robotId":"358","relatedQuestionEnable":"false","guideWord":"","showNumberLimit":8,"userId":"11"},"userId":"","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"hotQuestion":{"robotId":"358","hotQuestionEnable":"false","hotDataMode":"MANUAL_ADD","guideWord":"","hotQuestionList":[],"userId":"11"},"wantToask":{"robotId":"358","wantToAskEnable":"false","guideWord":"","showNumberLimit":3,"userId":"11"},"relatedQuestion":{"robotId":"358","relatedQuestionEnable":"false","guideWord":"","showNumberLimit":8,"userId":"11"},"userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"358","hotQuestion":{"robotId":"358","hotQuestionEnable":"false","hotDataMode":"MANUAL_ADD","guideWord":"","hotQuestionList":[],"userId":"11"},"wantToask":{"robotId":"358","wantToAskEnable":"false","guideWord":"","showNumberLimit":3,"userId":"11"},"relatedQuestion":{"robotId":"358","relatedQuestionEnable":"false","guideWord":"","showNumberLimit":8,"userId":"11"},"loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"358","hotQuestion":{"robotId":"358","hotQuestionEnable":"false","hotDataMode":"MANUAL_ADD","guideWord":"","hotQuestionList":[],"userId":"11"},"wantToask":{"robotId":"358","wantToAskEnable":"false","guideWord":"","showNumberLimit":3,"userId":"11"},"relatedQuestion":{"robotId":"358","relatedQuestionEnable":"false","guideWord":"","showNumberLimit":8,"userId":"11"},"userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"","timeResponseType":2,"speedNonTextSeconds":2,"speedTextWordCount":5,"guestFeedbackDisplayEnable":"false","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"","userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"timeResponseType":2,"speedNonTextSeconds":2,"speedTextWordCount":5,"guestFeedbackDisplayEnable":"false","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"","userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>正常保存-关闭保存，且设置guideWord为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"robotId":"358","relatedQuestionEnable":"false","guideWord":"","showNumberLimit":3,"userId":"11"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi-assert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"robotId":"877","userId":"11","faqThresholdFrom":0.75,"faqThresholdTo":1}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","userId":"11","faqThresholdFrom":-0.75,"faqThresholdTo":1}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","userId":"11","faqThresholdFrom":75,"faqThresholdTo":1}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","userId":"11","faqThresholdFrom":0.75,"faqThresholdTo":-0.75}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","userId":"11","faqThresholdFrom":0.75,"faqThresholdTo":75}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","userId":"","faqThresholdFrom":75,"faqThresholdTo":1}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","userId":"11","faqThresholdFrom":"","faqThresholdTo":1}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","userId":"11","faqThresholdFrom":0.75,"faqThresholdTo":""}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","userId":"11"}</t>
+  </si>
+  <si>
+    <t>sql-select robotId,normalGreetingEnable,normalGreetingContent,keywordGreetingEnable,keywordGreetingContent,userId from robot_greeting_word where robotId=877</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","userId":""}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877"}</t>
+  </si>
+  <si>
+    <t>sql-select gw.robotId,gw.guideResponseEnable,gwl.recordId,gw.robotId,gwl.intervalSeconds,gwl.responseContent,gwl.indexNo,gw.userId from robot_guide_word gw,robot_guide_word_list gwl where gw.robotId =877 and gw.userId = 11 and gw.userId = gwl.userId and gwl.robotId = gw.robotId</t>
+  </si>
+  <si>
+    <t>sql-select ww.robotId,ww.warmResponseEnable,ww.getContactDontSendEnable,ww.warmResponseEnable,ww.warmSendLimitNums,wwl.recordId,wwl.robotId,wwl.intervalSeconds,wwl.responseContent,wwl.indexNo,ww.userId from robot_warm_word ww,robot_warm_word_list wwl where ww.robotId =877 and ww.userId = 11 and ww.userId = wwl.userId and wwl.robotId = ww.robotId</t>
+  </si>
+  <si>
+    <t>sql-select up.robotId,up.unknowResponseEnable,up.delaySecondsFrom,up.delaySecondsTo,upl.recordId,upl.robotId,upl.responseContent,upl.indexNo,up.userId from robot_unknow_response up,robot_unknow_response_list upl where up.robotId =877 and up.userId = 11 and up.userId = upl.userId and upl.robotId = up.robotId</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","normalGreetingEnable":"true","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"false","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","normalGreetingEnable":"true","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"true","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","normalGreetingEnable":"false","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"true","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","normalGreetingEnable":"false","normalGreetingContent":"","keywordGreetingEnable":"true","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","normalGreetingEnable":"false","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"false","keywordGreetingContent":"","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","normalGreetingEnable":"true","normalGreetingContent":"","keywordGreetingEnable":"true","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","normalGreetingEnable":"false","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"true","keywordGreetingContent":"","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","normalGreetingEnable":"","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"false","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","normalGreetingEnable":"true","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","normalGreetingEnable":"true","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"false","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":""}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"true","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","normalGreetingEnable":"true","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","normalGreetingEnable":"true","normalGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-通用问候语内容A&lt;/div&gt;","keywordGreetingEnable":"true","keywordGreetingContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-关键词问候语内容A&lt;/div&gt;"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","guideResponseEnable":"true","guideWordList":[],"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","guideResponseEnable":"true","guideWordList":[{"recordId":"3073","robotId":"877","intervalSeconds":2,"responseContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-引导语1&lt;/div&gt;","indexNo":"1"}],"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","guideResponseEnable":"true","guideWordList":[{"recordId":"3073","robotId":"877","intervalSeconds":2,"responseContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-引导语1&lt;/div&gt;","indexNo":"1"},{"recordId":"3076","robotId":"877","intervalSeconds":3,"responseContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-引导语2&lt;/div&gt;","indexNo":"2"}],"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","guideResponseEnable":"false","guideWordList":[{"recordId":"3073","robotId":"877","intervalSeconds":2,"responseContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-引导语1&lt;/div&gt;","indexNo":"1"},{"recordId":"3076","robotId":"877","intervalSeconds":3,"responseContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-引导语2&lt;/div&gt;","indexNo":"2"}],"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","guideResponseEnable":"true","guideWordList":[{"recordId":"3073","robotId":"877","responseContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-引导语1&lt;/div&gt;","indexNo":"1"}],"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","guideResponseEnable":"true","guideWordList":[{"recordId":"3073","robotId":"877","intervalSeconds":-3,"responseContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-引导语1&lt;/div&gt;","indexNo":"1"}],"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","guideResponseEnable":"true","guideWordList":[{"recordId":"3073","robotId":"877","intervalSeconds":2,"indexNo":"1"}],"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","guideResponseEnable":"true","guideWordList":[],"userId":""}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","guideResponseEnable":"","guideWordList":[],"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","guideResponseEnable":"true","guideWordList":[]}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","guideWordList":[],"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","warmResponseEnable":"true","getContactDontSendEnable":true,"warmSendLimitEnable":true,"warmSendLimitNums":5,"warmWordList":[{"recordId":"4276","robotId":"877","intervalSeconds":3,"responseContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-暖场语1&lt;/div&gt;","indexNo":"1"}],"userId":"11","loaded":true}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","warmResponseEnable":"true","getContactDontSendEnable":true,"warmSendLimitEnable":true,"warmSendLimitNums":5,"warmWordList":[{"recordId":"4276","robotId":"877","intervalSeconds":3,"responseContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-暖场语1&lt;/div&gt;","indexNo":"1"},{"recordId":"4279","robotId":"877","intervalSeconds":3,"responseContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-暖场语2&lt;/div&gt;","indexNo":"2"}],"userId":"11","loaded":true}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","warmResponseEnable":"true","getContactDontSendEnable":true,"warmSendLimitEnable":true,"warmSendLimitNums":5,"warmWordList":[{"recordId":"4276","robotId":"877","responseContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-暖场语1&lt;/div&gt;","indexNo":"1"}],"userId":"11","loaded":true}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","warmResponseEnable":"true","getContactDontSendEnable":true,"warmSendLimitEnable":true,"warmSendLimitNums":5,"warmWordList":[{"recordId":"4276","robotId":"877","intervalSeconds":-3,"responseContent":"&lt;div&gt;zl-专用查询机器人配置（非空）-暖场语1&lt;/div&gt;","indexNo":"1"}],"userId":"11","loaded":true}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","warmResponseEnable":"true","getContactDontSendEnable":true,"warmSendLimitEnable":true,"warmSendLimitNums":5,"warmWordList":[],"userId":"","loaded":true}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","warmResponseEnable":"","getContactDontSendEnable":true,"warmSendLimitEnable":true,"warmSendLimitNums":5,"warmWordList":[],"userId":"11","loaded":true}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","warmResponseEnable":"true","getContactDontSendEnable":true,"warmSendLimitEnable":true,"warmSendLimitNums":5,"warmWordList":[],"loaded":true}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","getContactDontSendEnable":true,"warmSendLimitEnable":true,"warmSendLimitNums":5,"warmWordList":[],"userId":"11","loaded":true}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","unknowResponseEnable":"true","unknowResponseList":[{"responseContent":"&lt;div&gt;zl-测试位置问题回复1&lt;/div&gt;","recordId":1599704268658,"robotId":"877"}],"userId":"11","loaded":"true","delaySecondsFrom":1,"delaySecondsTo":2}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","unknowResponseEnable":"true","unknowResponseList":[{"responseContent":"&lt;div&gt;zl-测试位置问题回复1&lt;/div&gt;","recordId":1,"robotId":"877"},{"responseContent":"&lt;div&gt;zl-测试位置问题回复2&lt;/div&gt;","recordId":2,"robotId":"877"}],"userId":"11","loaded":"true","delaySecondsFrom":1,"delaySecondsTo":2}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","unknowResponseEnable":"true","unknowResponseList":[{"responseContent":"&lt;div&gt;zl-测试位置问题回复1&lt;/div&gt;","recordId":1599704268658,"robotId":"877"}],"userId":"11","loaded":"true","delaySecondsFrom":-1,"delaySecondsTo":2}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","unknowResponseEnable":"true","unknowResponseList":[{"responseContent":"&lt;div&gt;zl-测试位置问题回复1&lt;/div&gt;","recordId":1599704268658,"robotId":"877"}],"userId":"11","loaded":"true","delaySecondsFrom":1,"delaySecondsTo":-2}</t>
+  </si>
+  <si>
+    <t>{"robotId":"","unknowResponseEnable":"true","unknowResponseList":[{"responseContent":"&lt;div&gt;zl-测试位置问题回复1&lt;/div&gt;","recordId":1599704268658,"robotId":"877"}],"userId":"11","loaded":"true","delaySecondsFrom":1,"delaySecondsTo":2}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","unknowResponseEnable":"true","unknowResponseList":[{"responseContent":"&lt;div&gt;zl-测试位置问题回复1&lt;/div&gt;","recordId":1599704268658,"robotId":"877"}],"loaded":"true","delaySecondsFrom":1,"delaySecondsTo":2}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","unknowResponseEnable":"true","unknowResponseList":[{"responseContent":"","recordId":1599704268658,"robotId":"877"}],"userId":"11","loaded":"true","delaySecondsFrom":1,"delaySecondsTo":2}</t>
+  </si>
+  <si>
+    <t>{"unknowResponseEnable":"true","unknowResponseList":[{"responseContent":"&lt;div&gt;zl-测试位置问题回复1&lt;/div&gt;","recordId":1599704268658,"robotId":"877"}],"userId":"11","loaded":"true","delaySecondsFrom":1,"delaySecondsTo":2}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","unknowResponseEnable":"true","unknowResponseList":[{"recordId":1599704268658,"robotId":"877"}],"userId":"11","loaded":"true","delaySecondsFrom":1,"delaySecondsTo":2}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestion":{"robotId":"877","hotQuestionEnable":"false","hotDataMode":"MANUAL_ADD","guideWord":"","hotQuestionList":[],"userId":"11"},"wantToask":{"robotId":"877","wantToAskEnable":"true","guideWord":"zl测试猜你想问","showNumberLimit":-3,"userId":"11"},"relatedQuestion":{"robotId":"877","relatedQuestionEnable":"false","guideWord":"","showNumberLimit":8,"userId":"11"},"userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestion":{"robotId":"877","hotQuestionEnable":"false","hotDataMode":"MANUAL_ADD","guideWord":"","hotQuestionList":[],"userId":"11"},"wantToask":{"robotId":"877","wantToAskEnable":"","guideWord":"zl测试猜你想问","showNumberLimit":3,"userId":"11"},"relatedQuestion":{"robotId":"877","relatedQuestionEnable":"false","guideWord":"","showNumberLimit":8,"userId":"11"},"userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestion":{"robotId":"877","hotQuestionEnable":"","hotDataMode":"MANUAL_ADD","guideWord":"热点问题","hotQuestionList":[{"recordId":"4426","robotId":"877","faqId":"98556658183372800","indexNo":"1","hotDataMode":"MANUAL_ADD","question":"热点问题-问题1","id":"98556658183372800","key":"98556658183372800"}],"userId":"11"},"wantToask":{"robotId":"877","wantToAskEnable":"false","guideWord":"","showNumberLimit":3,"userId":"11"},"relatedQuestion":{"robotId":"877","relatedQuestionEnable":"false","guideWord":"","showNumberLimit":8,"userId":"11"},"userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestion":{"robotId":"877","hotQuestionEnable":"","hotDataMode":"MANUAL_ADD","guideWord":"","hotQuestionList":[],"userId":"11"},"wantToask":{"robotId":"877","wantToAskEnable":"false","guideWord":"","showNumberLimit":3,"userId":"11"},"relatedQuestion":{"robotId":"877","relatedQuestionEnable":"true","guideWord":"zl测试引导语","showNumberLimit":8,"userId":"11"},"userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestion":{"robotId":"877","hotQuestionEnable":"false","hotDataMode":"MANUAL_ADD","guideWord":"","hotQuestionList":[],"userId":"11"},"wantToask":{"robotId":"877","guideWord":"zl测试猜你想问","showNumberLimit":3,"userId":"11"},"relatedQuestion":{"robotId":"877","relatedQuestionEnable":"false","guideWord":"","showNumberLimit":8,"userId":"11"},"userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestion":{"robotId":"877","hotDataMode":"MANUAL_ADD","guideWord":"热点问题","hotQuestionList":[{"recordId":"4426","robotId":"877","faqId":"98556658183372800","indexNo":"1","hotDataMode":"MANUAL_ADD","question":"热点问题-问题1","id":"98556658183372800","key":"98556658183372800"}],"userId":"11"},"wantToask":{"robotId":"877","wantToAskEnable":"false","guideWord":"","showNumberLimit":3,"userId":"11"},"relatedQuestion":{"robotId":"877","relatedQuestionEnable":"false","guideWord":"","showNumberLimit":8,"userId":"11"},"userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestion":{"robotId":"877","hotDataMode":"MANUAL_ADD","guideWord":"","hotQuestionList":[],"userId":"11"},"wantToask":{"robotId":"877","wantToAskEnable":"false","guideWord":"","showNumberLimit":3,"userId":"11"},"relatedQuestion":{"robotId":"877","relatedQuestionEnable":"true","guideWord":"zl测试引导语","showNumberLimit":8,"userId":"11"},"userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestion":{"robotId":"877","hotQuestionEnable":"false","hotDataMode":"MANUAL_ADD","guideWord":"","hotQuestionList":[],"userId":"11"},"wantToask":{"robotId":"877","wantToAskEnable":"true","guideWord":"zl测试猜你想问","showNumberLimit":3,"userId":"11"},"relatedQuestion":{"robotId":"877","relatedQuestionEnable":"false","guideWord":"","showNumberLimit":8,"userId":"11"},"userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestion":{"robotId":"877","hotQuestionEnable":"false","hotDataMode":"MANUAL_ADD","guideWord":"","hotQuestionList":[],"userId":"11"},"wantToask":{"robotId":"877","wantToAskEnable":"true","guideWord":"zl测试猜你想问","showNumberLimit":3,"userId":"11"},"relatedQuestion":{"robotId":"877","relatedQuestionEnable":"true","guideWord":"zl测试关联问题","showNumberLimit":8,"userId":"11"},"userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>sql-select robotId,guestDisplayEnable,guestDisplayWord,unknowQuestionDisplayEnable,unkonwQuestionCountTimes,unknowQuestionDisplayWord,unsolveQuestionDisplayEnable,unsolveQuestionDisplayWord,keywordDisplayEnable,keywordContent,keywordExactEnable,keywordDisplayWord,userId from robot_transfer_labor where robotId=877 and userId = 11</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","guestDisplayEnable":"true","guestDisplayWord":"转人工","unknowQuestionDisplayEnable":"false","unkonwQuestionCountTimes":"","unknowQuestionDisplayWord":"","unsolveQuestionDisplayEnable":"false","unsolveQuestionCountTimes":"","unsolveQuestionDisplayWord":"","keywordDisplayEnable":"false","keywordContent":"","keywordExactEnable":"false","keywordDisplayWord":"","userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","guestDisplayEnable":"false","guestDisplayWord":"","unknowQuestionDisplayEnable":"true","unknowQuestionDisplayWord":"测试转人工","unsolveQuestionDisplayEnable":"false","unsolveQuestionDisplayWord":"","keywordDisplayEnable":"false","keywordContent":"","keywordExactEnable":"false","keywordDisplayWord":"","userId":"11","loaded":"true","unkonwQuestionCountTimes":2}</t>
+  </si>
+  <si>
+    <t>{"robotId": "877", "guestDisplayEnable": "false", "guestDisplayWord": "","unknowQuestionDisplayEnable": "false", "unknowQuestionDisplayWord": "", "unsolveQuestionDisplayEnable": "true", "unsolveQuestionDisplayWord": "测试转人工","keywordDisplayEnable": "false","keywordContent": "", "keywordExactEnable": "false", "keywordDisplayWord": "", "userId": "11","loaded": "true", "unkonwQuestionCountTimes": "", "unsolveQuestionCountTimes": 2}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","guestDisplayEnable":"true","guestDisplayWord":"访客端转人工","unknowQuestionDisplayEnable":"false","unknowQuestionDisplayWord":"","unsolveQuestionDisplayEnable":"true","unsolveQuestionCountTimes":2,"unsolveQuestionDisplayWord":"测试转人工","keywordDisplayEnable":"false","keywordContent":"","keywordExactEnable":"false","keywordDisplayWord":"","userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","guestDisplayEnable":"true","guestDisplayWord":"访客端转人工","unknowQuestionDisplayEnable":"true","unknowQuestionDisplayWord":"测试转人工","unsolveQuestionDisplayEnable":"true","unsolveQuestionCountTimes":2,"unsolveQuestionDisplayWord":"测试转人工","keywordDisplayEnable":"false","keywordContent":"","keywordExactEnable":"false","keywordDisplayWord":"","userId":"11","loaded":"true","unkonwQuestionCountTimes":2}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","guestDisplayEnable":"false","guestDisplayWord":"","unknowQuestionDisplayEnable":"false","unknowQuestionDisplayWord":"","unsolveQuestionDisplayEnable":"true","unsolveQuestionDisplayWord":"测试转人工","keywordDisplayEnable":"false","keywordContent":"","keywordExactEnable":"false","keywordDisplayWord":"","userId":"11","loaded":"true","unkonwQuestionCountTimes":"","unsolveQuestionCountTimes":-2}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","guestDisplayEnable":"false","guestDisplayWord":"","unknowQuestionDisplayEnable":"true","unknowQuestionDisplayWord":"测试转人工","unsolveQuestionDisplayEnable":"false","unsolveQuestionDisplayWord":"","keywordDisplayEnable":"false","keywordContent":"","keywordExactEnable":"false","keywordDisplayWord":"","userId":"11","loaded":"true","unkonwQuestionCountTimes":-2}</t>
+  </si>
+  <si>
+    <t>sql-select robotId,timeResponseType,randomSecondsFrom,randomSecondsTo,guestFeedbackDisplayEnable,guestFeedbackSolveWord,guestFeedbackUnsolveWord,userId from robot_advanced_settings where robotId=877 and userId = 11</t>
+  </si>
+  <si>
+    <t>sql-select robotId,wantToAskEnable,guideWord,showNumberLimit,userId from robot_want_toask where robotId=877 and userId = 11</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","wantToAskEnable":"true","guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":3,"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","wantToAskEnable":"false","guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":3,"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","wantToAskEnable":"false","guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":-3,"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","wantToAskEnable":"true","guideWord":"","showNumberLimit":-3,"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","wantToAskEnable":"","guideWord":"","showNumberLimit":-3,"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","wantToAskEnable":"true","guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":3,"userId":""}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","wantToAskEnable":"true","guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":3}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":3,"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","wantToAskEnable":"true","showNumberLimit":3,"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","wantToAskEnable":"true","guideWord":"猜你想问问题-通过猜你想问接口保存","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":2,"speedNonTextSeconds":2,"speedTextWordCount":5,"guestFeedbackDisplayEnable":"false","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"","userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":1,"guestFeedbackDisplayEnable":"false","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"","userId":"11","loaded":"true","randomSecondsFrom":2,"randomSecondsTo":3}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":1,"randomSecondsFrom":2,"randomSecondsTo":3,"speedNonTextSeconds":0,"guestFeedbackDisplayEnable":"true","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"","userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":1,"randomSecondsFrom":2,"randomSecondsTo":3,"speedNonTextSeconds":0,"guestFeedbackDisplayEnable":"true","guestFeedbackSolveWord":"解决","guestFeedbackUnsolveWord":"","userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":1,"randomSecondsFrom":2,"randomSecondsTo":3,"speedNonTextSeconds":0,"guestFeedbackDisplayEnable":"true","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"未解决","userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":1,"randomSecondsFrom":2,"randomSecondsTo":3,"speedNonTextSeconds":0,"guestFeedbackDisplayEnable":"true","guestFeedbackSolveWord":"解决","guestFeedbackUnsolveWord":"未解决","userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":2,"randomSecondsFrom":2,"randomSecondsTo":3,"speedNonTextSeconds":2,"guestFeedbackDisplayEnable":"true","guestFeedbackSolveWord":"解决","guestFeedbackUnsolveWord":"未解决","userId":"11","loaded":"true","speedTextWordCount":2}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":2,"speedNonTextSeconds":-2,"speedTextWordCount":5,"guestFeedbackDisplayEnable":"false","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"","userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":2,"speedNonTextSeconds":2,"speedTextWordCount":-5,"guestFeedbackDisplayEnable":"false","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"","userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":1,"guestFeedbackDisplayEnable":"false","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"","userId":"11","loaded":"true","randomSecondsFrom":-2,"randomSecondsTo":3}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":1,"guestFeedbackDisplayEnable":"false","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"","userId":"11","loaded":"true","randomSecondsFrom":2,"randomSecondsTo":-3}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":"","speedNonTextSeconds":2,"speedTextWordCount":5,"guestFeedbackDisplayEnable":"false","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"","userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":30,"speedNonTextSeconds":2,"speedTextWordCount":5,"guestFeedbackDisplayEnable":"false","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"","userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":1,"speedNonTextSeconds":2,"speedTextWordCount":5,"guestFeedbackDisplayEnable":"false","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"","userId":"","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","speedNonTextSeconds":2,"speedTextWordCount":5,"guestFeedbackDisplayEnable":"false","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"","userId":"11","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":1,"speedNonTextSeconds":2,"speedTextWordCount":5,"guestFeedbackDisplayEnable":"false","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"","loaded":"true"}</t>
+  </si>
+  <si>
+    <t>sql-select robotId,relatedQuestionEnable,guideWord,showNumberLimit,userId from robot_related_question where robotId=877 and userId = 11</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","relatedQuestionEnable":"true","guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":3,"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","relatedQuestionEnable":"false","guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":3,"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","relatedQuestionEnable":"false","guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":-3,"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","relatedQuestionEnable":"true","guideWord":"","showNumberLimit":-3,"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","relatedQuestionEnable":"","guideWord":"","showNumberLimit":-3,"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","relatedQuestionEnable":"true","guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":3,"userId":""}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","relatedQuestionEnable":"true","guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":3}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","relatedQuestionEnable":"true","showNumberLimit":3,"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","relatedQuestionEnable":"true","guideWord":"猜你想问问题-通过猜你想问接口保存","userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestionEnable":"false","hotDataMode":"MANUAL_ADD","guideWord":"通过热点接口添加-热点问题","hotQuestionList":[{"recordId":"4426","robotId":"877","faqId":"","indexNo":"1","hotDataMode":"MANUAL_ADD","question":"热点问题-问题1","id":"98556658183372800","key":"98556658183372800"}],"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestionEnable":"true","hotDataMode":"","guideWord":"通过热点接口添加-热点问题","hotQuestionList":[{"recordId":"4426","robotId":"877","faqId":"98556658183372800","indexNo":"1","hotDataMode":"MANUAL_ADD","question":"热点问题-问题1","id":"98556658183372800","key":"98556658183372800"}],"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestionEnable":"","hotDataMode":"MANUAL_ADD","guideWord":"通过热点接口添加-热点问题","hotQuestionList":[{"recordId":"4426","robotId":"877","faqId":"98556658183372800","indexNo":"1","hotDataMode":"MANUAL_ADD","question":"热点问题-问题1","id":"98556658183372800","key":"98556658183372800"}],"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"","hotQuestionEnable":"true","hotDataMode":"MANUAL_ADD","guideWord":"通过热点接口添加-热点问题","hotQuestionList":[{"recordId":"4426","robotId":"877","faqId":"98556658183372800","indexNo":"1","hotDataMode":"MANUAL_ADD","question":"热点问题-问题1","id":"98556658183372800","key":"98556658183372800"}],"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestionEnable":"true","hotDataMode":"MANUAL_ADD","guideWord":"通过热点接口添加-热点问题","hotQuestionList":[{"recordId":"4426","robotId":"877","faqId":"98556658183372800","indexNo":"1","hotDataMode":"MANUAL_ADD","question":"热点问题-问题1","id":"98556658183372800","key":"98556658183372800"}],"userId":""}</t>
+  </si>
+  <si>
+    <t>{"hotQuestionEnable":"true","hotDataMode":"MANUAL_ADD","guideWord":"通过热点接口添加-热点问题","hotQuestionList":[{"recordId":"4426","robotId":"877","faqId":"98556658183372800","indexNo":"1","hotDataMode":"MANUAL_ADD","question":"热点问题-问题1","id":"98556658183372800","key":"98556658183372800"}],"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestionEnable":"true","hotDataMode":"MANUAL_ADD","guideWord":"通过热点接口添加-热点问题","hotQuestionList":[{"recordId":"4426","robotId":"877","faqId":"98556658183372800","indexNo":"1","hotDataMode":"MANUAL_ADD","question":"热点问题-问题1","id":"98556658183372800","key":"98556658183372800"}]}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestionEnable":"false","hotDataMode":"MANUAL_ADD","guideWord":"通过热点接口添加-热点问题","hotQuestionList":[{"recordId":"4426","robotId":"877","indexNo":"1","hotDataMode":"MANUAL_ADD","question":"热点问题-问题1","id":"98556658183372800","key":"98556658183372800"}],"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestionEnable":"true","guideWord":"通过热点接口添加-热点问题","hotQuestionList":[{"recordId":"4426","robotId":"877","faqId":"98556658183372800","indexNo":"1","hotDataMode":"MANUAL_ADD","question":"热点问题-问题1","id":"98556658183372800","key":"98556658183372800"}],"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotDataMode":"MANUAL_ADD","guideWord":"通过热点接口添加-热点问题","hotQuestionList":[{"recordId":"4426","robotId":"877","faqId":"98556658183372800","indexNo":"1","hotDataMode":"MANUAL_ADD","question":"热点问题-问题1","id":"98556658183372800","key":"98556658183372800"}],"userId":"11"}</t>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestion":{"robotId":"877","hotQuestionEnable":"true","hotDataMode":"MANUAL_ADD","guideWord":"热点问题","hotQuestionList":[{"id":"101305407436324864","question":"zl-test分类测试问题2","similarQuestionCount":1,"effectiveType":0,"userId":"11","robotId":"877","modifyTime":"2020-09-17 23:56:43","key":"101305407436324864","isFind":true,"faqId":"101305407436324864","hotDataMode":"MANUAL_ADD"}],"userId":"11"},"wantToask":{"robotId":"877","wantToAskEnable":"false","guideWord":"","showNumberLimit":3,"userId":"11"},"relatedQuestion":{"robotId":"877","relatedQuestionEnable":"false","guideWord":"","showNumberLimit":8,"userId":"11"},"userId":"11","loaded":"true"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestion":{"robotId":"877","hotQuestionEnable":"true","hotDataMode":"MANUAL_ADD","guideWord":"测试热点问题","hotQuestionList":[{"id":"101305407436324864","question":"zl-test分类测试问题2","similarQuestionCount":1,"effectiveType":0,"userId":"11","robotId":"877","modifyTime":"2020-09-17 23:56:43","key":"101305407436324864","isFind":true,"faqId":"101305407436324864","hotDataMode":"MANUAL_ADD"}],"userId":"11"},"wantToask":{"robotId":"877","wantToAskEnable":true,"guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":3,"userId":"11"},"relatedQuestion":{"robotId":"877","relatedQuestionEnable":true,"guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":-3,"userId":"11"},"userId":"11","loaded":true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestion":{"robotId":"877","hotQuestionEnable":"false","hotDataMode":"MANUAL_ADD","guideWord":"","hotQuestionList":[],"userId":"11"},"wantToask":{"robotId":"877","wantToAskEnable":"false","guideWord":"","showNumberLimit":3,"userId":"11"},"relatedQuestion":{"robotId":"877","relatedQuestionEnable":"true","guideWord":"zl测试引导语","showNumberLimit":8,"userId":"11"},"userId":"11","loaded":"true"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestionEnable":"true","hotDataMode":"MANUAL_ADD","guideWord":"通过热点接口添加-热点问题","hotQuestionList":[{"id":"101305407436324864","question":"zl-test分类测试问题2","similarQuestionCount":1,"effectiveType":0,"userId":"11","robotId":"877","modifyTime":"2020-09-17 23:56:43","key":"101305407436324864","isFind":true,"faqId":"101305407436324864","hotDataMode":"MANUAL_ADD"}],"userId":"11"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestionEnable":"false","hotDataMode":"MANUAL_ADD","guideWord":"通过热点接口添加-热点问题","hotQuestionList":[{"id":"101305407436324864","question":"zl-test分类测试问题2","similarQuestionCount":1,"effectiveType":0,"userId":"11","robotId":"877","modifyTime":"2020-09-17 23:56:43","key":"101305407436324864","isFind":true,"faqId":"101305407436324864","hotDataMode":"MANUAL_ADD"}],"userId":"11"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql-select hq.robotId,hq.hotQuestionEnable,hq.hotDataMode,hq.guideWord,hq.userId from robot_hot_question hq where hq.robotId =877 and hq.userId = 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status-400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +1280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -434,6 +1290,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,7 +1583,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C3:C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -744,7 +1609,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -752,168 +1617,1686 @@
     </row>
     <row r="3" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435A0D3A-F623-47C1-A988-7B6C096EF592}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C10" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.125" customWidth="1"/>
+    <col min="2" max="2" width="86.375" customWidth="1"/>
+    <col min="3" max="3" width="38.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA365DF2-34EF-4B5A-8A6B-BF746C81E2D6}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="37.625" customWidth="1"/>
+    <col min="3" max="3" width="77.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660CA933-9F7F-429B-AF7F-87310B742CE5}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49.5" customWidth="1"/>
+    <col min="2" max="2" width="63" customWidth="1"/>
+    <col min="3" max="4" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D9175A-DEF2-4EEA-9D0E-65A4F6F86DCA}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="77.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEE9AF7-5035-4966-878D-D5409FEA928F}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="60.375" customWidth="1"/>
+    <col min="2" max="2" width="100.5" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC9DD8B-BF43-48AD-8488-63013CB648EC}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.75" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="41.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C47502-3923-4602-AE42-E408C54C5CF7}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CDF5C9-7AF7-45E3-8E51-FD254878A7B0}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.875" customWidth="1"/>
+    <col min="2" max="2" width="75.125" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442D2CB3-5782-42EA-B2CF-02DDA3FB61F3}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.25" customWidth="1"/>
+    <col min="2" max="2" width="72" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D6D973-8E42-47DD-B573-B4C9E8E969BC}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="3" max="3" width="88.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -922,7 +3305,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -945,10 +3328,10 @@
     </row>
     <row r="2" spans="1:4" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -956,67 +3339,500 @@
     </row>
     <row r="3" spans="1:4" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A62971-1E30-47BD-9698-70380923CC57}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="67.625" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CB59C5-6D41-40A4-BD7F-2C8E6493C5AC}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867F8D21-F0DB-4B01-8AAE-D7A614361798}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="2" max="2" width="59.875" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="114" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1030,7 +3846,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1053,10 +3869,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1064,78 +3880,72 @@
     </row>
     <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1150,7 +3960,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1173,10 +3983,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1184,78 +3994,72 @@
     </row>
     <row r="3" spans="1:4" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1271,7 +4075,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1294,10 +4098,10 @@
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1305,84 +4109,79 @@
     </row>
     <row r="3" spans="1:4" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1391,7 +4190,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1412,12 +4211,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1425,78 +4224,72 @@
     </row>
     <row r="3" spans="1:4" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1510,8 +4303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB81E8A6-9E1A-443B-B3BE-F05D4477AA2F}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1534,10 +4327,10 @@
     </row>
     <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1545,10 +4338,10 @@
     </row>
     <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -1556,10 +4349,10 @@
     </row>
     <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -1567,10 +4360,10 @@
     </row>
     <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -1578,10 +4371,10 @@
     </row>
     <row r="6" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -1589,10 +4382,10 @@
     </row>
     <row r="7" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -1600,10 +4393,10 @@
     </row>
     <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -1611,10 +4404,10 @@
     </row>
     <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -1622,10 +4415,10 @@
     </row>
     <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1633,10 +4426,10 @@
     </row>
     <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1644,10 +4437,10 @@
     </row>
     <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1655,10 +4448,10 @@
     </row>
     <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1666,10 +4459,10 @@
     </row>
     <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1677,10 +4470,10 @@
     </row>
     <row r="15" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1688,10 +4481,10 @@
     </row>
     <row r="16" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1699,10 +4492,10 @@
     </row>
     <row r="17" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1710,10 +4503,10 @@
     </row>
     <row r="18" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>232</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1721,12 +4514,376 @@
     </row>
     <row r="19" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7308D3-F7E2-430B-B37A-8DF30745ADCF}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.625" customWidth="1"/>
+    <col min="2" max="2" width="84.625" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E7E7AA-A725-417B-A0B4-B2C401960A02}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="61" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/testdata/robotconfig/robot_config.xlsx
+++ b/testdata/robotconfig/robot_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\KICP-AUTO\testdata\robotconfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A46297-66A7-451C-8041-124B4727FA11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D9A5D7-2B53-4DD8-A664-CD16E1799325}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="save_threshold_data" sheetId="1" r:id="rId1"/>
@@ -1101,21 +1101,6 @@
     <t>{"robotId":"877","timeResponseType":1,"guestFeedbackDisplayEnable":"false","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"","userId":"11","loaded":"true","randomSecondsFrom":2,"randomSecondsTo":3}</t>
   </si>
   <si>
-    <t>{"robotId":"877","timeResponseType":1,"randomSecondsFrom":2,"randomSecondsTo":3,"speedNonTextSeconds":0,"guestFeedbackDisplayEnable":"true","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"","userId":"11","loaded":"true"}</t>
-  </si>
-  <si>
-    <t>{"robotId":"877","timeResponseType":1,"randomSecondsFrom":2,"randomSecondsTo":3,"speedNonTextSeconds":0,"guestFeedbackDisplayEnable":"true","guestFeedbackSolveWord":"解决","guestFeedbackUnsolveWord":"","userId":"11","loaded":"true"}</t>
-  </si>
-  <si>
-    <t>{"robotId":"877","timeResponseType":1,"randomSecondsFrom":2,"randomSecondsTo":3,"speedNonTextSeconds":0,"guestFeedbackDisplayEnable":"true","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"未解决","userId":"11","loaded":"true"}</t>
-  </si>
-  <si>
-    <t>{"robotId":"877","timeResponseType":1,"randomSecondsFrom":2,"randomSecondsTo":3,"speedNonTextSeconds":0,"guestFeedbackDisplayEnable":"true","guestFeedbackSolveWord":"解决","guestFeedbackUnsolveWord":"未解决","userId":"11","loaded":"true"}</t>
-  </si>
-  <si>
-    <t>{"robotId":"877","timeResponseType":2,"randomSecondsFrom":2,"randomSecondsTo":3,"speedNonTextSeconds":2,"guestFeedbackDisplayEnable":"true","guestFeedbackSolveWord":"解决","guestFeedbackUnsolveWord":"未解决","userId":"11","loaded":"true","speedTextWordCount":2}</t>
-  </si>
-  <si>
     <t>{"robotId":"877","timeResponseType":2,"speedNonTextSeconds":-2,"speedTextWordCount":5,"guestFeedbackDisplayEnable":"false","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"","userId":"11","loaded":"true"}</t>
   </si>
   <si>
@@ -1207,10 +1192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"robotId":"877","hotQuestion":{"robotId":"877","hotQuestionEnable":"true","hotDataMode":"MANUAL_ADD","guideWord":"测试热点问题","hotQuestionList":[{"id":"101305407436324864","question":"zl-test分类测试问题2","similarQuestionCount":1,"effectiveType":0,"userId":"11","robotId":"877","modifyTime":"2020-09-17 23:56:43","key":"101305407436324864","isFind":true,"faqId":"101305407436324864","hotDataMode":"MANUAL_ADD"}],"userId":"11"},"wantToask":{"robotId":"877","wantToAskEnable":true,"guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":3,"userId":"11"},"relatedQuestion":{"robotId":"877","relatedQuestionEnable":true,"guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":-3,"userId":"11"},"userId":"11","loaded":true}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"robotId":"877","hotQuestion":{"robotId":"877","hotQuestionEnable":"false","hotDataMode":"MANUAL_ADD","guideWord":"","hotQuestionList":[],"userId":"11"},"wantToask":{"robotId":"877","wantToAskEnable":"false","guideWord":"","showNumberLimit":3,"userId":"11"},"relatedQuestion":{"robotId":"877","relatedQuestionEnable":"true","guideWord":"zl测试引导语","showNumberLimit":8,"userId":"11"},"userId":"11","loaded":"true"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1228,6 +1209,30 @@
   </si>
   <si>
     <t>status-400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":2,"speedNonTextSeconds":2,"speedTextWordCount":2,"guestFeedbackDisplayEnable":"true","guestFeedbackSolveWord":"解决","guestFeedbackUnsolveWord":"未解决","userId":"11","loaded":"true"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":2,"speedNonTextSeconds":2,"speedTextWordCount":2,"guestFeedbackDisplayEnable":"true","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"未解决","userId":"11","loaded":"true"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":2,"speedNonTextSeconds":2,"speedTextWordCount":2,"guestFeedbackDisplayEnable":"true","guestFeedbackSolveWord":"解决","guestFeedbackUnsolveWord":"","userId":"11","loaded":"true"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":1,"speedNonTextSeconds":"null","speedTextWordCount":"null","guestFeedbackDisplayEnable":"true","guestFeedbackSolveWord":"解决","guestFeedbackUnsolveWord":"未解决","userId":"11","loaded":"true","randomSecondsFrom":2,"randomSecondsTo":3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"robotId":"877","timeResponseType":1,"randomSecondsFrom":2,"randomSecondsTo":3,"guestFeedbackDisplayEnable":"true","guestFeedbackSolveWord":"","guestFeedbackUnsolveWord":"","userId":"11","loaded":"true"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"robotId":"877","hotQuestion":{"robotId":"877","hotQuestionEnable":"true","hotDataMode":"MANUAL_ADD","guideWord":"通过热点接口添加-热点问题","hotQuestionList":[{"recordId":"5851","robotId":"877","faqId":"101305407436324864","indexNo":"1","hotDataMode":"MANUAL_ADD","question":"zl-test分类测试问题2","id":"101305407436324864","key":"101305407436324864"}],"userId":"11"},"wantToask":{"robotId":"877","wantToAskEnable":"true","guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":3,"userId":"11"},"relatedQuestion":{"robotId":"877","relatedQuestionEnable":"true","guideWord":"猜你想问问题-通过猜你想问接口保存","showNumberLimit":3,"userId":"11"},"userId":"11","loaded":"true"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2023,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660CA933-9F7F-429B-AF7F-87310B742CE5}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2053,7 +2058,7 @@
         <v>262</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
@@ -2182,7 +2187,7 @@
         <v>103</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>3</v>
@@ -2193,7 +2198,7 @@
         <v>104</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>109</v>
@@ -2221,12 +2226,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>109</v>
@@ -2813,7 +2818,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2875,7 +2880,7 @@
         <v>284</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2977,7 +2982,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3025,7 +3030,7 @@
         <v>147</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -3036,7 +3041,7 @@
         <v>149</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -3047,7 +3052,7 @@
         <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -3058,7 +3063,7 @@
         <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>3</v>
@@ -3069,7 +3074,7 @@
         <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
@@ -3080,7 +3085,7 @@
         <v>143</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -3091,7 +3096,7 @@
         <v>144</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -3102,7 +3107,7 @@
         <v>145</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -3113,7 +3118,7 @@
         <v>146</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -3135,7 +3140,7 @@
         <v>152</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -3146,7 +3151,7 @@
         <v>153</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>154</v>
@@ -3157,7 +3162,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -3179,7 +3184,7 @@
         <v>156</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -3190,7 +3195,7 @@
         <v>130</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -3247,7 +3252,7 @@
         <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3407,7 +3412,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3433,7 +3438,7 @@
         <v>159</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -3444,7 +3449,7 @@
         <v>160</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -3466,7 +3471,7 @@
         <v>161</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -3477,10 +3482,10 @@
         <v>162</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
@@ -3488,7 +3493,7 @@
         <v>169</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -3510,7 +3515,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -3532,7 +3537,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -3554,7 +3559,7 @@
         <v>167</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>154</v>
@@ -3565,7 +3570,7 @@
         <v>168</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>154</v>
@@ -3582,7 +3587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CB59C5-6D41-40A4-BD7F-2C8E6493C5AC}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -3623,7 +3628,7 @@
         <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3656,7 +3661,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3667,7 +3672,7 @@
         <v>217</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3708,7 +3713,7 @@
         <v>160</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -3719,7 +3724,7 @@
         <v>179</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -3730,7 +3735,7 @@
         <v>173</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -3741,7 +3746,7 @@
         <v>174</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>154</v>
@@ -3752,7 +3757,7 @@
         <v>175</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -3763,7 +3768,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -3774,7 +3779,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -3785,7 +3790,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -3796,7 +3801,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -3807,7 +3812,7 @@
         <v>176</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -3818,7 +3823,7 @@
         <v>178</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>154</v>
@@ -3829,7 +3834,7 @@
         <v>177</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
